--- a/Code/Results/Cases/Case_9_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.6438634951968</v>
+        <v>22.78573474223801</v>
       </c>
       <c r="C2">
-        <v>18.16630844655035</v>
+        <v>19.00565356272633</v>
       </c>
       <c r="D2">
-        <v>3.469726138706636</v>
+        <v>3.545742281664235</v>
       </c>
       <c r="E2">
-        <v>29.47496108119609</v>
+        <v>29.39448767944809</v>
       </c>
       <c r="F2">
-        <v>27.41672416821054</v>
+        <v>25.92660354811642</v>
       </c>
       <c r="G2">
-        <v>39.78752262239998</v>
+        <v>36.6442681180875</v>
       </c>
       <c r="H2">
-        <v>3.320750202570991</v>
+        <v>3.27169008750573</v>
       </c>
       <c r="I2">
-        <v>3.488103503260326</v>
+        <v>3.422216792631468</v>
       </c>
       <c r="J2">
-        <v>11.7937048492607</v>
+        <v>11.79353689372716</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.91225899885563</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.743516210185103</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.5863265057295</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.60455494982591</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.04241460553843</v>
+        <v>21.29494892977885</v>
       </c>
       <c r="C3">
-        <v>17.01284228432342</v>
+        <v>17.73616123745904</v>
       </c>
       <c r="D3">
-        <v>3.45833103125186</v>
+        <v>3.508191423379969</v>
       </c>
       <c r="E3">
-        <v>27.53347376026066</v>
+        <v>27.47845918159693</v>
       </c>
       <c r="F3">
-        <v>26.08283788034188</v>
+        <v>24.77044530978409</v>
       </c>
       <c r="G3">
-        <v>37.62419723626781</v>
+        <v>34.76896544698392</v>
       </c>
       <c r="H3">
-        <v>3.0308459972263</v>
+        <v>2.997486448050528</v>
       </c>
       <c r="I3">
-        <v>3.256450097611817</v>
+        <v>3.224584061015339</v>
       </c>
       <c r="J3">
-        <v>11.454007323266</v>
+        <v>11.5006859209807</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.91919010393142</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.349534100539653</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.75496156855592</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>11.74304463149856</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.99768948444952</v>
+        <v>20.32149257304812</v>
       </c>
       <c r="C4">
-        <v>16.27002726416454</v>
+        <v>16.9169440375083</v>
       </c>
       <c r="D4">
-        <v>3.450088557412172</v>
+        <v>3.483982050379374</v>
       </c>
       <c r="E4">
-        <v>26.27620054522585</v>
+        <v>26.23706672162568</v>
       </c>
       <c r="F4">
-        <v>25.24019956790489</v>
+        <v>24.03976124650665</v>
       </c>
       <c r="G4">
-        <v>36.24706993204867</v>
+        <v>33.57772850033512</v>
       </c>
       <c r="H4">
-        <v>2.847191376992828</v>
+        <v>2.823587656062092</v>
       </c>
       <c r="I4">
-        <v>3.110679802456791</v>
+        <v>3.100227193031613</v>
       </c>
       <c r="J4">
-        <v>11.24437871904691</v>
+        <v>11.31728397283491</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.91934988785953</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.125962654209676</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.85956529539115</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>11.82997882703692</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.54829221019158</v>
+        <v>19.90242331120636</v>
       </c>
       <c r="C5">
-        <v>15.96762404646113</v>
+        <v>16.58189523221189</v>
       </c>
       <c r="D5">
-        <v>3.446587622849911</v>
+        <v>3.47429727597267</v>
       </c>
       <c r="E5">
-        <v>25.74696818308168</v>
+        <v>25.71444200052499</v>
       </c>
       <c r="F5">
-        <v>24.87719570578727</v>
+        <v>23.72381526534116</v>
       </c>
       <c r="G5">
-        <v>35.64863837295088</v>
+        <v>33.05843940905563</v>
       </c>
       <c r="H5">
-        <v>2.770645784802006</v>
+        <v>2.751079695790902</v>
       </c>
       <c r="I5">
-        <v>3.050509461423161</v>
+        <v>3.04921945695849</v>
       </c>
       <c r="J5">
-        <v>11.15365695309601</v>
+        <v>11.23701634925072</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.91031122961226</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.032397795283506</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.90221332058574</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>11.86605717453816</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.46281415315461</v>
+        <v>19.82255706153964</v>
       </c>
       <c r="C6">
-        <v>15.92788843322069</v>
+        <v>16.53640221655789</v>
       </c>
       <c r="D6">
-        <v>3.446199784640535</v>
+        <v>3.473252088598374</v>
       </c>
       <c r="E6">
-        <v>25.65759020480487</v>
+        <v>25.62622597640837</v>
       </c>
       <c r="F6">
-        <v>24.7994145298901</v>
+        <v>23.65486022152993</v>
       </c>
       <c r="G6">
-        <v>35.51745958057396</v>
+        <v>32.94200948406109</v>
       </c>
       <c r="H6">
-        <v>2.757545134422524</v>
+        <v>2.738685481810095</v>
       </c>
       <c r="I6">
-        <v>3.040824903827605</v>
+        <v>3.041466313435427</v>
       </c>
       <c r="J6">
-        <v>11.13233977538808</v>
+        <v>11.21791120793796</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.89891096669789</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.007970682018694</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.90899882677086</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>11.87229729575087</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.96526718338467</v>
+        <v>20.27995655316225</v>
       </c>
       <c r="C7">
-        <v>16.29535216253771</v>
+        <v>16.92721389247727</v>
       </c>
       <c r="D7">
-        <v>3.450640465111943</v>
+        <v>3.486673668896377</v>
       </c>
       <c r="E7">
-        <v>26.26777700568699</v>
+        <v>26.22798168585274</v>
       </c>
       <c r="F7">
-        <v>25.18917981651337</v>
+        <v>23.96368135677562</v>
       </c>
       <c r="G7">
-        <v>36.15567108477619</v>
+        <v>33.57595984933996</v>
       </c>
       <c r="H7">
-        <v>2.84535162456222</v>
+        <v>2.821342643333823</v>
       </c>
       <c r="I7">
-        <v>3.110517150337216</v>
+        <v>3.100380459408237</v>
       </c>
       <c r="J7">
-        <v>11.22625900313504</v>
+        <v>11.23724283323026</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.88156585560126</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.088356497005673</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.85936182599312</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>11.83158969580455</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.07209166698183</v>
+        <v>22.2197348155934</v>
       </c>
       <c r="C8">
-        <v>17.81175646818846</v>
+        <v>18.56848598497248</v>
       </c>
       <c r="D8">
-        <v>3.466952939139762</v>
+        <v>3.539642833826094</v>
       </c>
       <c r="E8">
-        <v>28.81730204375398</v>
+        <v>28.7429836056616</v>
       </c>
       <c r="F8">
-        <v>26.90429654963345</v>
+        <v>25.38923122527309</v>
       </c>
       <c r="G8">
-        <v>38.94867864911465</v>
+        <v>36.17179810018367</v>
       </c>
       <c r="H8">
-        <v>3.220904907550389</v>
+        <v>3.175641575402527</v>
       </c>
       <c r="I8">
-        <v>3.409246114754653</v>
+        <v>3.353627785681685</v>
       </c>
       <c r="J8">
-        <v>11.65521813534082</v>
+        <v>11.46946725204422</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.84771621741041</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.53266232696758</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.64360956832551</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>11.65538611833147</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.76308712298464</v>
+        <v>25.64623790535398</v>
       </c>
       <c r="C9">
-        <v>20.46493461214994</v>
+        <v>21.47795811964231</v>
       </c>
       <c r="D9">
-        <v>3.487605749630859</v>
+        <v>3.626517491066727</v>
       </c>
       <c r="E9">
-        <v>33.30624872521364</v>
+        <v>33.16807226807756</v>
       </c>
       <c r="F9">
-        <v>30.14362208476354</v>
+        <v>28.18593514817244</v>
       </c>
       <c r="G9">
-        <v>44.15877407561909</v>
+        <v>40.74969180758007</v>
       </c>
       <c r="H9">
-        <v>3.915652542264951</v>
+        <v>3.831185665048839</v>
       </c>
       <c r="I9">
-        <v>3.968531417138386</v>
+        <v>3.828915476912254</v>
       </c>
       <c r="J9">
-        <v>12.51412006448753</v>
+        <v>12.15332650054021</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.83405827123812</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.61808596376732</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.22868842090426</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.32108644542728</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.09265295407283</v>
+        <v>27.75998703809521</v>
       </c>
       <c r="C10">
-        <v>22.17760102693252</v>
+        <v>23.27966075817394</v>
       </c>
       <c r="D10">
-        <v>3.507584577561119</v>
+        <v>3.711465521201364</v>
       </c>
       <c r="E10">
-        <v>35.41630864421222</v>
+        <v>35.22730166170957</v>
       </c>
       <c r="F10">
-        <v>32.15823203939568</v>
+        <v>29.78293910718875</v>
       </c>
       <c r="G10">
-        <v>47.31693132391465</v>
+        <v>43.91737819749096</v>
       </c>
       <c r="H10">
-        <v>4.361258638839971</v>
+        <v>4.246748979543732</v>
       </c>
       <c r="I10">
-        <v>4.353083645682685</v>
+        <v>4.152104807614732</v>
       </c>
       <c r="J10">
-        <v>13.04615289626093</v>
+        <v>12.23307072652404</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.66962184170779</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.30416982515241</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>10.93275878566703</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.10433956948778</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.34356045742834</v>
+        <v>27.93895945017712</v>
       </c>
       <c r="C11">
-        <v>22.24732303678198</v>
+        <v>23.17582524168463</v>
       </c>
       <c r="D11">
-        <v>3.643987800417278</v>
+        <v>3.950560080884733</v>
       </c>
       <c r="E11">
-        <v>28.83815545499239</v>
+        <v>28.62414264440504</v>
       </c>
       <c r="F11">
-        <v>31.16908706897344</v>
+        <v>28.57646585186537</v>
       </c>
       <c r="G11">
-        <v>45.37061316090258</v>
+        <v>42.96069238011689</v>
       </c>
       <c r="H11">
-        <v>4.697082325513255</v>
+        <v>4.587727962485793</v>
       </c>
       <c r="I11">
-        <v>4.424656740532581</v>
+        <v>4.208650273902681</v>
       </c>
       <c r="J11">
-        <v>12.5583439467356</v>
+        <v>11.11160623037548</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.85874618245436</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.71718298317902</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>10.87730438876698</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.16329628258152</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.11453818835253</v>
+        <v>27.72065255580699</v>
       </c>
       <c r="C12">
-        <v>21.92869278223705</v>
+        <v>22.73064534806386</v>
       </c>
       <c r="D12">
-        <v>3.790268239562267</v>
+        <v>4.155524587078497</v>
       </c>
       <c r="E12">
-        <v>22.90770487579116</v>
+        <v>22.67469136566961</v>
       </c>
       <c r="F12">
-        <v>29.9569765613468</v>
+        <v>27.3455350556281</v>
       </c>
       <c r="G12">
-        <v>43.15188075802654</v>
+        <v>41.33670678925424</v>
       </c>
       <c r="H12">
-        <v>5.461342623468729</v>
+        <v>5.371404482420878</v>
       </c>
       <c r="I12">
-        <v>4.413194232964681</v>
+        <v>4.196790798574336</v>
       </c>
       <c r="J12">
-        <v>12.04913404889388</v>
+        <v>10.37810060712749</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.28768144866841</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.14148500470009</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>10.92219252734746</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.27724583304142</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.46631545850425</v>
+        <v>27.1701059313738</v>
       </c>
       <c r="C13">
-        <v>21.31918027340969</v>
+        <v>22.04401149103388</v>
       </c>
       <c r="D13">
-        <v>3.947414360464491</v>
+        <v>4.329510697407485</v>
       </c>
       <c r="E13">
-        <v>17.01694836762379</v>
+        <v>16.7636110563008</v>
       </c>
       <c r="F13">
-        <v>28.40663903300287</v>
+        <v>25.98991372061646</v>
       </c>
       <c r="G13">
-        <v>40.41836249451057</v>
+        <v>38.77738639817728</v>
       </c>
       <c r="H13">
-        <v>6.440600236381091</v>
+        <v>6.372303509323111</v>
       </c>
       <c r="I13">
-        <v>4.338318563567315</v>
+        <v>4.135552619854044</v>
       </c>
       <c r="J13">
-        <v>11.46053103765361</v>
+        <v>9.983178674172496</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.83835589912761</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.518995036800622</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.03977761809921</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.42242092425013</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.80916098022707</v>
+        <v>26.62110021757023</v>
       </c>
       <c r="C14">
-        <v>20.76221023000672</v>
+        <v>21.45245014748537</v>
       </c>
       <c r="D14">
-        <v>4.06454588718697</v>
+        <v>4.43663236226865</v>
       </c>
       <c r="E14">
-        <v>12.98995389593959</v>
+        <v>12.71382977295973</v>
       </c>
       <c r="F14">
-        <v>27.139146639581</v>
+        <v>24.9556255187047</v>
       </c>
       <c r="G14">
-        <v>38.21722899794811</v>
+        <v>36.51672044933712</v>
       </c>
       <c r="H14">
-        <v>7.215352304383632</v>
+        <v>7.160679192101798</v>
       </c>
       <c r="I14">
-        <v>4.258912595003095</v>
+        <v>4.072018163675862</v>
       </c>
       <c r="J14">
-        <v>11.00501430979975</v>
+        <v>9.838270856520404</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.56717849308655</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.051918105645036</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.15581654821747</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.53598188541136</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.54817636547731</v>
+        <v>26.40438539026889</v>
       </c>
       <c r="C15">
-        <v>20.56991203651322</v>
+        <v>21.25969285079972</v>
       </c>
       <c r="D15">
-        <v>4.09228881901917</v>
+        <v>4.454019734237131</v>
       </c>
       <c r="E15">
-        <v>12.02267065441075</v>
+        <v>11.74244021468377</v>
       </c>
       <c r="F15">
-        <v>26.74102079017118</v>
+        <v>24.657017438549</v>
       </c>
       <c r="G15">
-        <v>37.53877836931393</v>
+        <v>35.74718818008114</v>
       </c>
       <c r="H15">
-        <v>7.39293804888062</v>
+        <v>7.341984010029204</v>
       </c>
       <c r="I15">
-        <v>4.225409469672052</v>
+        <v>4.045903738256399</v>
       </c>
       <c r="J15">
-        <v>10.87218676308943</v>
+        <v>9.855286569780624</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.51416968084378</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.918232305597536</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.19647552621335</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.56791600327158</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.66592563972837</v>
+        <v>25.6730857129606</v>
       </c>
       <c r="C16">
-        <v>19.96358579172445</v>
+        <v>20.71862245468124</v>
       </c>
       <c r="D16">
-        <v>4.047712173442918</v>
+        <v>4.346618346219642</v>
       </c>
       <c r="E16">
-        <v>11.83867685995027</v>
+        <v>11.59835284109965</v>
       </c>
       <c r="F16">
-        <v>26.08313839886647</v>
+        <v>24.35322014167918</v>
       </c>
       <c r="G16">
-        <v>36.52806228077597</v>
+        <v>34.10242963706578</v>
       </c>
       <c r="H16">
-        <v>7.102969814482791</v>
+        <v>7.059450407226635</v>
       </c>
       <c r="I16">
-        <v>4.079787980951282</v>
+        <v>3.929687397320092</v>
       </c>
       <c r="J16">
-        <v>10.73467739237796</v>
+        <v>10.33339430349172</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.69615451109433</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.816020548028531</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.28287960869856</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.5856533070546</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.34030733085122</v>
+        <v>25.39205265471486</v>
       </c>
       <c r="C17">
-        <v>19.79958962448057</v>
+        <v>20.60897807839835</v>
       </c>
       <c r="D17">
-        <v>3.949088184742855</v>
+        <v>4.213951011166097</v>
       </c>
       <c r="E17">
-        <v>13.87310578640696</v>
+        <v>13.67325315398454</v>
       </c>
       <c r="F17">
-        <v>26.27740434804753</v>
+        <v>24.65714905361161</v>
       </c>
       <c r="G17">
-        <v>36.97157333238507</v>
+        <v>34.19422303995762</v>
       </c>
       <c r="H17">
-        <v>6.41537029171651</v>
+        <v>6.371397045764689</v>
       </c>
       <c r="I17">
-        <v>4.00912998256694</v>
+        <v>3.872523110569755</v>
       </c>
       <c r="J17">
-        <v>10.87700028285852</v>
+        <v>10.71335185622378</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.97798267358814</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.974203309016344</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.28940917846929</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.54958943702739</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.49184812445168</v>
+        <v>25.5166639405704</v>
       </c>
       <c r="C18">
-        <v>19.99256152443188</v>
+        <v>20.87655371809535</v>
       </c>
       <c r="D18">
-        <v>3.802906568145095</v>
+        <v>4.043336913587674</v>
       </c>
       <c r="E18">
-        <v>18.38160590259239</v>
+        <v>18.21311856734049</v>
       </c>
       <c r="F18">
-        <v>27.26071755529094</v>
+        <v>25.59832015743019</v>
       </c>
       <c r="G18">
-        <v>38.78090842289028</v>
+        <v>35.70764908595896</v>
       </c>
       <c r="H18">
-        <v>5.399788023069403</v>
+        <v>5.346922205186742</v>
       </c>
       <c r="I18">
-        <v>3.998219749623301</v>
+        <v>3.862350008848402</v>
       </c>
       <c r="J18">
-        <v>11.28627444845459</v>
+        <v>11.17439059072149</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.42075107858775</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.410909195558339</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.23744175603213</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.46168433459743</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.97948395253557</v>
+        <v>25.93133639312321</v>
       </c>
       <c r="C19">
-        <v>20.50909867281125</v>
+        <v>21.4854263173553</v>
       </c>
       <c r="D19">
-        <v>3.657513123065602</v>
+        <v>3.874080155018992</v>
       </c>
       <c r="E19">
-        <v>24.64125343431039</v>
+        <v>24.48579994602394</v>
       </c>
       <c r="F19">
-        <v>28.71697435802271</v>
+        <v>26.91964210722328</v>
       </c>
       <c r="G19">
-        <v>41.39697711370783</v>
+        <v>38.03994655327048</v>
       </c>
       <c r="H19">
-        <v>4.461449558734045</v>
+        <v>4.390183945044927</v>
       </c>
       <c r="I19">
-        <v>4.046810653928175</v>
+        <v>3.903309773228191</v>
       </c>
       <c r="J19">
-        <v>11.84873358746013</v>
+        <v>11.68727388471925</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.93708245669914</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.999156624005455</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.16451538995762</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.35500143084313</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.43174824163758</v>
+        <v>27.18868789543065</v>
       </c>
       <c r="C20">
-        <v>21.80563208525454</v>
+        <v>22.92126878429412</v>
       </c>
       <c r="D20">
-        <v>3.506147566157134</v>
+        <v>3.691426056879129</v>
       </c>
       <c r="E20">
-        <v>34.83050164910912</v>
+        <v>34.65818687902218</v>
       </c>
       <c r="F20">
-        <v>31.5103961730674</v>
+        <v>29.33354350185675</v>
       </c>
       <c r="G20">
-        <v>46.27802466393966</v>
+        <v>42.64503318098576</v>
       </c>
       <c r="H20">
-        <v>4.240809048167219</v>
+        <v>4.136140314314393</v>
       </c>
       <c r="I20">
-        <v>4.254668850748319</v>
+        <v>4.075828180951908</v>
       </c>
       <c r="J20">
-        <v>12.85696513830156</v>
+        <v>12.36936937280804</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.6763290398915</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.07792487811298</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.01115395129201</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.16385669664278</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.27914939694882</v>
+        <v>28.70353964212707</v>
       </c>
       <c r="C21">
-        <v>23.18009460818281</v>
+        <v>24.18173634870824</v>
       </c>
       <c r="D21">
-        <v>3.50197994124079</v>
+        <v>3.757697885384433</v>
       </c>
       <c r="E21">
-        <v>37.73102856424792</v>
+        <v>37.50416128507087</v>
       </c>
       <c r="F21">
-        <v>33.37221751497648</v>
+        <v>30.42214466279219</v>
       </c>
       <c r="G21">
-        <v>49.25994244302762</v>
+        <v>46.82102749453583</v>
       </c>
       <c r="H21">
-        <v>4.640624147281344</v>
+        <v>4.50273852605555</v>
       </c>
       <c r="I21">
-        <v>4.56464276858819</v>
+        <v>4.322625425190896</v>
       </c>
       <c r="J21">
-        <v>13.39942467736099</v>
+        <v>11.50796865804247</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.50973901590343</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.56512643645664</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>10.77617571642723</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.00413858353312</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.41668028107338</v>
+        <v>29.62589594658591</v>
       </c>
       <c r="C22">
-        <v>23.97964011806708</v>
+        <v>24.89119554689698</v>
       </c>
       <c r="D22">
-        <v>3.502368552176713</v>
+        <v>3.810296602634369</v>
       </c>
       <c r="E22">
-        <v>39.11864152928633</v>
+        <v>38.85586294753385</v>
       </c>
       <c r="F22">
-        <v>34.49833541112521</v>
+        <v>31.03765283772864</v>
       </c>
       <c r="G22">
-        <v>51.04457482358785</v>
+        <v>49.45434205902938</v>
       </c>
       <c r="H22">
-        <v>4.878017020044972</v>
+        <v>4.718861880520733</v>
       </c>
       <c r="I22">
-        <v>4.75838292984181</v>
+        <v>4.474723769608277</v>
       </c>
       <c r="J22">
-        <v>13.72783172206</v>
+        <v>10.87169699440104</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.37774554966824</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.86056764306514</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>10.62502493662884</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>10.90971219014214</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.83679652060215</v>
+        <v>29.17983786606598</v>
       </c>
       <c r="C23">
-        <v>23.53025347766166</v>
+        <v>24.51720590892933</v>
       </c>
       <c r="D23">
-        <v>3.501186547599083</v>
+        <v>3.774611429592514</v>
       </c>
       <c r="E23">
-        <v>38.38425916988842</v>
+        <v>38.14206266407491</v>
       </c>
       <c r="F23">
-        <v>33.94167777275581</v>
+        <v>30.80840745213494</v>
       </c>
       <c r="G23">
-        <v>50.17042472240531</v>
+        <v>47.95493792735124</v>
       </c>
       <c r="H23">
-        <v>4.752452908705247</v>
+        <v>4.605515064056063</v>
       </c>
       <c r="I23">
-        <v>4.654328995400081</v>
+        <v>4.393072653327353</v>
       </c>
       <c r="J23">
-        <v>13.56965957050869</v>
+        <v>11.36538075550094</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.49479808596466</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.75964519932037</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>10.70524988552053</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>10.95279292247953</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.50554550025614</v>
+        <v>27.25484572461804</v>
       </c>
       <c r="C24">
-        <v>21.80867200804155</v>
+        <v>22.93541237152798</v>
       </c>
       <c r="D24">
-        <v>3.495826300081693</v>
+        <v>3.673287323259264</v>
       </c>
       <c r="E24">
-        <v>35.49417807344113</v>
+        <v>35.32138339565428</v>
       </c>
       <c r="F24">
-        <v>31.7176075977585</v>
+        <v>29.52774489201868</v>
       </c>
       <c r="G24">
-        <v>46.65158957977702</v>
+        <v>42.97543764100244</v>
       </c>
       <c r="H24">
-        <v>4.268785696085855</v>
+        <v>4.163389845175574</v>
       </c>
       <c r="I24">
-        <v>4.257577346755423</v>
+        <v>4.075791866178466</v>
       </c>
       <c r="J24">
-        <v>12.94008296599739</v>
+        <v>12.45365575449836</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.77462564200953</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.18336743677443</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.01003368483145</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.15306181022881</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.77569781178393</v>
+        <v>24.74300904100175</v>
       </c>
       <c r="C25">
-        <v>19.8207699471083</v>
+        <v>20.78426547589665</v>
       </c>
       <c r="D25">
-        <v>3.484560430895144</v>
+        <v>3.605658774606711</v>
       </c>
       <c r="E25">
-        <v>32.14387379180721</v>
+        <v>32.02447275564197</v>
       </c>
       <c r="F25">
-        <v>29.21761612081433</v>
+        <v>27.41620181047983</v>
       </c>
       <c r="G25">
-        <v>42.6650451071949</v>
+        <v>39.32110967183166</v>
       </c>
       <c r="H25">
-        <v>3.730705133945817</v>
+        <v>3.657678526299509</v>
       </c>
       <c r="I25">
-        <v>3.820764954721362</v>
+        <v>3.706503013737301</v>
       </c>
       <c r="J25">
-        <v>12.25522280624223</v>
+        <v>12.030174366957</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.81406469658839</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.28261078632771</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.34007074700181</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.41189159099612</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
